--- a/DMSNewVSale_2025-12-23_18-00.xlsx
+++ b/DMSNewVSale_2025-12-23_18-00.xlsx
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
   </si>
   <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
@@ -2729,7 +2738,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2739,14 +2748,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2755,14 +2764,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2772,7 +2781,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2795,7 +2804,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2812,7 +2821,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2828,7 +2837,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2845,7 +2854,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2861,7 +2870,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2894,7 +2903,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2904,11 +2913,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>11</v>
@@ -2920,14 +2929,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2937,14 +2946,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2960,7 +2969,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2970,14 +2979,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2986,14 +2995,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3003,14 +3012,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3019,14 +3028,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3043,7 +3052,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3059,13 +3068,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3092,7 +3101,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3102,14 +3111,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3144,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3151,14 +3160,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3168,11 +3177,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>11</v>
@@ -3184,14 +3193,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3201,14 +3210,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3217,14 +3226,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3234,14 +3243,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3250,14 +3259,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3267,14 +3276,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>138</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3283,14 +3292,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3300,14 +3309,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3316,14 +3325,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3333,14 +3342,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,14 +3375,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3382,14 +3391,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3399,11 +3408,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>11</v>
@@ -3415,14 +3424,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3432,11 +3441,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>11</v>
@@ -3448,14 +3457,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3465,14 +3474,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3488,7 +3497,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3498,14 +3507,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3514,14 +3523,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3531,11 +3540,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>11</v>
@@ -3547,14 +3556,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3564,51 +3573,84 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="76" ht="26.25" customHeight="1">
-      <c r="N76" s="13">
-        <v>4849.2299999999996</v>
-      </c>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>216</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>217</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>218</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>82</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>36</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>180</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" ht="26.25" customHeight="1">
+      <c r="N77" s="13">
+        <v>4887.2299999999996</v>
+      </c>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>219</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>220</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>221</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3962,10 +4004,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="N76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="N77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
